--- a/biology/Botanique/Parc_intercommunal_des_Jalles/Parc_intercommunal_des_Jalles.xlsx
+++ b/biology/Botanique/Parc_intercommunal_des_Jalles/Parc_intercommunal_des_Jalles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc intercommunal des Jalles ou parc des Jalles est un espace naturel de 4 500 hectares situé au nord-ouest de la métropole bordelaise sur la rive gauche de la Garonne. Il a été créé en réaction à la périurbanisation récente de ce gisement patrimonial et paysager jusqu'alors préservé.
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc des Jalles s’étend sur neuf communes : Bordeaux, Parempuyre, Bruges, Blanquefort, Le Taillan-Médoc, Le Haillan, Eysines, Martignas-sur-Jalle et Saint-Médard-en-Jalles. Il suit le bassin versant de la Jalle de Blanquefort, le long d'une vallée ouest-est se déversant dans la Garonne en aval de Bordeaux, dans une zone uniquement traversée par des infrastructures sud-nord.
 Il a une forme d'entonnoir inversé depuis Le Bois des Sources jusqu'aux berges de Garonne où il s'étire des équipements verts de Bordeaux-Lac au port de Lagrange.
@@ -544,7 +558,9 @@
           <t>Géographie et géologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bassin versant de la Jalle de Blanquefort représente une superficie de 33 000 ha, sur une longueur de 30 km. La Jalle recueille les eaux de 250 km de cours d'eau permanents, soit une trentaine d'affluents. Son originalité est d'être une rivière sans source uniquement alimentée par les eaux de pluie et par la jalle de Martignas-sur-Jalle qui prend sa source à Saint-Jean-d'Illac.
 Le faible dénivelé et l'effet de bouchon garonnais, induit par les marées ou les crues, sont responsables des inondations de la plaine en aval. De très nombreux ouvrages hydrauliques limitent ces phénomènes de débordement.
@@ -579,7 +595,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La vallée des Jalles a longtemps échappé à l'urbanisation à cause du risque inondation.
 Au XVIIe siècle les travaux des ingénieurs hollandais Conrad Gaussens et Humphrey Bradley dans les paluds girondins avaient porté sur la rive sud de la Jalle à Bruges pour éradiquer le paludisme qui frappait la population bordelaise ; ils avaient été complétés au nord cinquante ans plus tard.
@@ -614,7 +632,9 @@
           <t>Territoire et paysages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs types de paysages alternent selon l'occupation du territoire :
 quelques formations boisées autour des sources du Tilh, dans les parcs de Bordeaux-Lac et du coteau de Blanquefort, notamment grâce aux domaines viticoles des châteaux Le Taillan et Dulamon ;
@@ -662,54 +682,127 @@
           <t>La gestion de l'eau</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La maîtrise de l'eau est le premier enjeu d'aménagement de ce parc, que ce soit l'eau des sources, celle des crues et inondations ou bien celle des pollutions diverses.
-L'alimentation de Bordeaux en eau potable
-L’aqueduc construit à Eysines au XIXe siècle pour alimenter Bordeaux était approvisionné par des fontaines et des puits[1]. Devant les besoins croissants de la ville, Joseph Jouis soumet le projet d'un aqueduc amenant les eaux du Taillan, projet accueilli favorablement par l’ingénieur Mary, inspecteur général des Ponts et Chaussées et ancien responsable des adductions d’eau de Paris.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maîtrise de l'eau est le premier enjeu d'aménagement de ce parc, que ce soit l'eau des sources, celle des crues et inondations ou bien celle des pollutions diverses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_intercommunal_des_Jalles</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_intercommunal_des_Jalles</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>La gestion de l'eau</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'alimentation de Bordeaux en eau potable</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L’aqueduc construit à Eysines au XIXe siècle pour alimenter Bordeaux était approvisionné par des fontaines et des puits. Devant les besoins croissants de la ville, Joseph Jouis soumet le projet d'un aqueduc amenant les eaux du Taillan, projet accueilli favorablement par l’ingénieur Mary, inspecteur général des Ponts et Chaussées et ancien responsable des adductions d’eau de Paris.
 Le maire de Bordeaux, David Johnston, confie à Mary et à Devanne la direction des travaux : le projet, présenté au conseil municipal le 14 décembre 1841 est approuvé le 4 février 1842 puis le 2 mai 1851. C'est le 7 juin 1852 que Louis Napoléon, Président de la République Française, déclare d’utilité publique les travaux de conduite et de distribution d’eau votés par la ville de Bordeaux. L'aqueduc est inauguré le 15 août 1857 par Mgr Donnet, archevêque de Bordeaux.
 L’aqueduc du Taillan a une longueur de 12 kilomètres ; son canal voûté amène les eaux du Thil et des autres sources voisines vers la station de pompage de la rue Paulin à Bordeaux. L'eau est acheminée à plus de 44 000 m3 par jour vers un réservoir de 13 000 m3, assurant près d'un quart des besoins d'alimentation en eau de la Métropole. Une portion de 76 mètres de long est visible au Taillan-Médoc, au niveau du franchissement des jalles. Le propriétaire en est la Lyonnaise des Eaux.
-À la suite du PLU approuvé par délibération du conseil CUB du 21 juillet 2006, voici les préconisations du projet d'aménagement et de développement durable (PADD) concernant la gestion de l'eau[2] :
+À la suite du PLU approuvé par délibération du conseil CUB du 21 juillet 2006, voici les préconisations du projet d'aménagement et de développement durable (PADD) concernant la gestion de l'eau :
 une utilisation plus sélective des ressources en eau afin de préserver les eaux de qualité ;
 la protection de tous les forages soit par servitude d’utilité publique, soit par utilisation de protection et de limitation d’urbanisation ;
 l’économie de la ressource en eau potable par utilisation d’autres sources de captage, en privilégiant le pompage d’autres nappes (Miocène, Oligocène et Crétacé) ou le pompage spécifique (par exemple eaux de surface de la Garonne) pour les eaux industrielles dans les zones à vocation économique ;
-des propositions d’économie et de récupération des eaux pluviales à préconiser dans un guide en accord avec le SAGE de la Gironde (charte de l’environnement de la CUB).
-Les crues et inondations
-La Direction Régionale de l’Environnement, de l’Aménagement et du Logement d’Aquitaine (DREAL) s’est dotée d’un Service de Prévision des Crues (SPC) : depuis le 1er juillet 2013, la zone de compétence du SPC couvre le bassin de l’Adour mais également l’estuaire de la Gironde et les tronçons de la Garonne et la Dordogne soumis à l’influence des marées[3].
-À la suite de la tempête Xynthia de 2010, le Plan de Prévention des Risques d’Inondation de Bordeaux Métropole (PPRI) est en cours de révision ; la création d’un outil mathématique de modélisation hydraulique, le Référentiel Inondation Gironde, permet de calculer, à partir de données météorologiques, l’emprise de la zone inondable, les hauteurs d’eau et les vitesses d'écoulement. De par sa situation géographique, le territoire du parc est affecté par ces nouvelles contraintes[4]. Des études hydrographiques locales sont engagées pour appréhender l'aménagement et la constructibilité en zone inondable. Ces études permettent d'une part d’évaluer l’impact des projets sur les écoulements de l’eau ainsi que leur vulnérabilité face au risque inondation et d'autre part, de  trouver des solutions pour réduire le risque et les impacts.
-Mais dans leur rapport fait au nom de la délégation aux collectivités territoriales, les sénateurs François Calvet et Christian Manable constatent que, si la chaîne du risque s’est améliorée, elle reste perfectible sur ses trois volets : prévision, prévention et protection, et doit être plus largement diffusée auprès de l’État, des administrations, des élus et des citoyens[5].
-Une réunion publique d'information à l'échelle intercommunale a été organisée le mercredi 30 septembre à 18h30 à L’Art Y Show, rue de la Gare à Parempuyre[6].
-Les pollutions diverses</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+des propositions d’économie et de récupération des eaux pluviales à préconiser dans un guide en accord avec le SAGE de la Gironde (charte de l’environnement de la CUB).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Parc_intercommunal_des_Jalles</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parc_intercommunal_des_Jalles</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>La gestion de l'eau</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les crues et inondations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Direction Régionale de l’Environnement, de l’Aménagement et du Logement d’Aquitaine (DREAL) s’est dotée d’un Service de Prévision des Crues (SPC) : depuis le 1er juillet 2013, la zone de compétence du SPC couvre le bassin de l’Adour mais également l’estuaire de la Gironde et les tronçons de la Garonne et la Dordogne soumis à l’influence des marées.
+À la suite de la tempête Xynthia de 2010, le Plan de Prévention des Risques d’Inondation de Bordeaux Métropole (PPRI) est en cours de révision ; la création d’un outil mathématique de modélisation hydraulique, le Référentiel Inondation Gironde, permet de calculer, à partir de données météorologiques, l’emprise de la zone inondable, les hauteurs d’eau et les vitesses d'écoulement. De par sa situation géographique, le territoire du parc est affecté par ces nouvelles contraintes. Des études hydrographiques locales sont engagées pour appréhender l'aménagement et la constructibilité en zone inondable. Ces études permettent d'une part d’évaluer l’impact des projets sur les écoulements de l’eau ainsi que leur vulnérabilité face au risque inondation et d'autre part, de  trouver des solutions pour réduire le risque et les impacts.
+Mais dans leur rapport fait au nom de la délégation aux collectivités territoriales, les sénateurs François Calvet et Christian Manable constatent que, si la chaîne du risque s’est améliorée, elle reste perfectible sur ses trois volets : prévision, prévention et protection, et doit être plus largement diffusée auprès de l’État, des administrations, des élus et des citoyens.
+Une réunion publique d'information à l'échelle intercommunale a été organisée le mercredi 30 septembre à 18h30 à L’Art Y Show, rue de la Gare à Parempuyre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parc_intercommunal_des_Jalles</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_intercommunal_des_Jalles</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Les ressources patrimoniales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Six Espaces naturels sensibles[7]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Six Espaces naturels sensibles
 Réserve de Bruges
 Digues des hollandais :
 digue de l'ouest ?
